--- a/biology/Médecine/Dyspnée_de_Kussmaul/Dyspnée_de_Kussmaul.xlsx
+++ b/biology/Médecine/Dyspnée_de_Kussmaul/Dyspnée_de_Kussmaul.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dyspn%C3%A9e_de_Kussmaul</t>
+          <t>Dyspnée_de_Kussmaul</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La dyspnée de Kussmaul (en latin dyspnoea, en grec dyspnoia de dyspnoos — court d'haleine) ou respiration de Kussmaul est une difficulté respiratoire profonde, souvent associée à une acidose métabolique sévère, notamment l'acidocétose diabétique, mais aussi parfois à une insuffisance rénale.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dyspn%C3%A9e_de_Kussmaul</t>
+          <t>Dyspnée_de_Kussmaul</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La dyspnée de Kussmaul est une forme d'hyperventilation, c'est-à-dire une respiration qui réduit la teneur en dioxyde de carbone du sang par son rythme accéléré ou sa profondeur.
-Dans le cas d'une acidose métabolique, la respiration est d'abord polypnéique (rapide et superficielle)[1], mais elle devient profonde, pénible et suffocante, alors que l'acidose s'aggrave. On parle alors de dyspnée de Kussmaul.
+Dans le cas d'une acidose métabolique, la respiration est d'abord polypnéique (rapide et superficielle), mais elle devient profonde, pénible et suffocante, alors que l'acidose s'aggrave. On parle alors de dyspnée de Kussmaul.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dyspn%C3%A9e_de_Kussmaul</t>
+          <t>Dyspnée_de_Kussmaul</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Terminologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de cette dyspnée est introduit par le médecin allemand Adolf Kussmaul dans une publication de 1874[2] pour désigner le type de respiration qu'il observe parmi ses patients souffrant de diabète sucré, lorsque l'acidose métabolique est suffisamment sévère pour que le rythme respiratoire soit normal ou réduit[3].
-Cette définition est reprise par plusieurs sources[4],[5] dont Merriam-Webster[6]. D'autres sources, en revanche, utilisent également ce nom pour désigner la respiration rapide lorsque l'acidose est moins sévère[5],[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de cette dyspnée est introduit par le médecin allemand Adolf Kussmaul dans une publication de 1874 pour désigner le type de respiration qu'il observe parmi ses patients souffrant de diabète sucré, lorsque l'acidose métabolique est suffisamment sévère pour que le rythme respiratoire soit normal ou réduit.
+Cette définition est reprise par plusieurs sources, dont Merriam-Webster. D'autres sources, en revanche, utilisent également ce nom pour désigner la respiration rapide lorsque l'acidose est moins sévère,.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dyspn%C3%A9e_de_Kussmaul</t>
+          <t>Dyspnée_de_Kussmaul</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Mécanisme</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Une acidose métabolique provoque rapidement une hyperventilation. Cette dernière est un des mécanismes de régulation de l'équilibre acido-basique de l'organisme. Ainsi, la dyspnée de Kussmaul est une compensation respiratoire de l'acidose métabolique en favorisant l'élimination de l'excès d'acide sous forme de dioxyde de carbone.
 Les gaz du sang d'un patient présentant une dyspnée de Kussmaul sont ceux d'une acidose métabolique : ils se caractérisent par un faible pH, une concentration en bicarbonates diminuée, un excès de base fortement négatif et une pression partielle en dioxyde de carbone abaissée.
